--- a/STRUCT.xlsx
+++ b/STRUCT.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aceafdec048690e/Macro/PYTHON/bKML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{FA32C81B-7FBA-4634-8715-09A3FEBAF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B59C99F-33E7-41D0-9439-63C10BF853D9}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{2E218AB5-5CB5-4AB8-BAEF-F16EDE093C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBDA38E-4E1D-4FA3-94FD-A31783D4F15A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D5C928EF-5396-46BA-AA8E-6ADA9714140F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D5C928EF-5396-46BA-AA8E-6ADA9714140F}"/>
   </bookViews>
   <sheets>
     <sheet name="STRUCT" sheetId="3" r:id="rId1"/>
+    <sheet name="COL_VAR" sheetId="4" r:id="rId2"/>
+    <sheet name="COL_ID_STRUCT" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COL_ID_STRUCT!$A$1:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COL_VAR!$A$1:$C$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STRUCT!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="318">
   <si>
     <t>Width (mm)</t>
   </si>
@@ -235,140 +239,777 @@
     <t>#LONG</t>
   </si>
   <si>
+    <t>#PSAFE</t>
+  </si>
+  <si>
+    <t>#RWT</t>
+  </si>
+  <si>
+    <t>#US</t>
+  </si>
+  <si>
+    <t>#WIDTH</t>
+  </si>
+  <si>
+    <t>#WT</t>
+  </si>
+  <si>
+    <t>#DIMM</t>
+  </si>
+  <si>
+    <t>#FEATURE</t>
+  </si>
+  <si>
+    <t>#FEATURE_TYPE</t>
+  </si>
+  <si>
+    <t>#JL</t>
+  </si>
+  <si>
+    <t>NEW_2</t>
+  </si>
+  <si>
+    <t>NEW_3</t>
+  </si>
+  <si>
+    <t>NEW_4</t>
+  </si>
+  <si>
+    <t>NEW_5</t>
+  </si>
+  <si>
+    <t>DESCR_EN</t>
+  </si>
+  <si>
+    <t>DESCR_RU</t>
+  </si>
+  <si>
+    <t>#DEPTH_PREV</t>
+  </si>
+  <si>
+    <t>#DEPTH_TMP</t>
+  </si>
+  <si>
+    <t>#DEPTH_TMP2</t>
+  </si>
+  <si>
+    <t>#FEA_CODE</t>
+  </si>
+  <si>
+    <t>#FEA_CODE_REPLACE</t>
+  </si>
+  <si>
+    <t>#HAR_CODE1</t>
+  </si>
+  <si>
+    <t>#HAR_CODE2</t>
+  </si>
+  <si>
+    <t>#REMARKS</t>
+  </si>
+  <si>
+    <t>#REP_GROUP</t>
+  </si>
+  <si>
+    <t>#AMPL</t>
+  </si>
+  <si>
+    <t>Amlitude</t>
+  </si>
+  <si>
+    <t>TARGET_COL_NAME</t>
+  </si>
+  <si>
+    <t>DBF_COL</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>#KML_CLASS</t>
+  </si>
+  <si>
+    <t>NEW_6</t>
+  </si>
+  <si>
+    <t>#JN</t>
+  </si>
+  <si>
+    <t>#CORR</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>NEW_1</t>
+  </si>
+  <si>
+    <t>NEW_7</t>
+  </si>
+  <si>
+    <t>NEW_8</t>
+  </si>
+  <si>
+    <t>#HAR_CODE1_REPLACE</t>
+  </si>
+  <si>
+    <t>#HAR_CODE2_REPLACE</t>
+  </si>
+  <si>
+    <t>#DBF_DESCR</t>
+  </si>
+  <si>
+    <t>NEW_9</t>
+  </si>
+  <si>
+    <t>#DESCR</t>
+  </si>
+  <si>
+    <t>#ORIENT_DEG</t>
+  </si>
+  <si>
+    <t>Высота</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Высота, м</t>
+  </si>
+  <si>
+    <t>Высота (м)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Угол, ° </t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Угол, °</t>
+  </si>
+  <si>
+    <t>Угол, град</t>
+  </si>
+  <si>
+    <t>Угловое положение характерной точки</t>
+  </si>
+  <si>
+    <t>Кластер</t>
+  </si>
+  <si>
+    <t>Номер кластера</t>
+  </si>
+  <si>
+    <t>Глуб., % от WT/Dн</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Глубина, %</t>
+  </si>
+  <si>
+    <t>Глубина особенности</t>
+  </si>
+  <si>
+    <t>Глубина, % WT</t>
+  </si>
+  <si>
+    <t>Глуб., % от WT</t>
+  </si>
+  <si>
+    <t>Глуб., % WT/Dн</t>
+  </si>
+  <si>
+    <t>Глубина, % WT (Dн)</t>
+  </si>
+  <si>
+    <t>Глубина, % Dн</t>
+  </si>
+  <si>
+    <t>Глуб., мм</t>
+  </si>
+  <si>
+    <t>DepthMM</t>
+  </si>
+  <si>
+    <t>Глубина, мм</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Descr</t>
+  </si>
+  <si>
+    <t>Комментарий (описание особенности)</t>
+  </si>
+  <si>
+    <t>Комм</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Dimm</t>
+  </si>
+  <si>
+    <t>Дист., м</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Дистанция начала особенности</t>
+  </si>
+  <si>
+    <t>Привязка к началу трубы</t>
+  </si>
+  <si>
+    <t>Дистанция, м</t>
+  </si>
+  <si>
+    <t>Коэффициент ремонта</t>
+  </si>
+  <si>
+    <t>ERFsimple</t>
+  </si>
+  <si>
+    <t>Особенность</t>
+  </si>
+  <si>
+    <t>Fea</t>
+  </si>
+  <si>
+    <t>Описание особенности</t>
+  </si>
+  <si>
+    <t>Код описания особенности</t>
+  </si>
+  <si>
+    <t>Длина секции, м</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>Длина трубы, м</t>
+  </si>
+  <si>
+    <t>Длина трубы</t>
+  </si>
+  <si>
+    <t>№ секции</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>№
+секции</t>
+  </si>
+  <si>
+    <t>Номер сварного стыка (трубы)</t>
+  </si>
+  <si>
+    <t>Широта</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Широта, °</t>
+  </si>
+  <si>
+    <t>Широта, град.</t>
+  </si>
+  <si>
+    <t>Длина, мм</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Длина особенности</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Тип особенности</t>
+  </si>
+  <si>
+    <t>Долгота</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Долгота, °</t>
+  </si>
+  <si>
+    <t>Долгота, град.</t>
+  </si>
+  <si>
+    <t>Критерии отбраковки
+П1-01.05 М-0133</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>№ перехода</t>
+  </si>
+  <si>
+    <t>Perehod</t>
+  </si>
+  <si>
+    <t># перехода</t>
+  </si>
+  <si>
+    <t>Тип перехода</t>
+  </si>
+  <si>
+    <t>PerehodType</t>
+  </si>
+  <si>
+    <t>Переход</t>
+  </si>
+  <si>
+    <t>Предремонтная классификация</t>
+  </si>
+  <si>
+    <t>Predrem</t>
+  </si>
+  <si>
+    <t>Pбез ASME B31G (МПа)</t>
+  </si>
+  <si>
+    <t>Psafe</t>
+  </si>
+  <si>
+    <t>P безоп. ASME B31G (МПа)</t>
+  </si>
+  <si>
+    <t>P.безоп. ASME B31G (МПа)</t>
+  </si>
+  <si>
+    <t>Допуст. рабочее (безопасное) давление</t>
+  </si>
+  <si>
+    <t>Ост. т. ст., мм</t>
+  </si>
+  <si>
+    <t>RemWT</t>
+  </si>
+  <si>
+    <t>Остаточная толщина стенки</t>
+  </si>
+  <si>
+    <t>Метод ремонта</t>
+  </si>
+  <si>
+    <t>RepairMethod</t>
+  </si>
+  <si>
+    <t>Параметры ремонта, м</t>
+  </si>
+  <si>
+    <t>RepairParam</t>
+  </si>
+  <si>
+    <t>Параметры ремонта</t>
+  </si>
+  <si>
+    <t>Параметры ремонта дефекта, м</t>
+  </si>
+  <si>
+    <t>Длина рем. конструкции</t>
+  </si>
+  <si>
+    <t>Параметры ремонта дефекта</t>
+  </si>
+  <si>
+    <t>Текущее состояние особенности</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Отн. дист., м.</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Отн. дист.,м</t>
+  </si>
+  <si>
+    <t>Отн. дистанция, м.</t>
+  </si>
+  <si>
+    <t>Относительная дистанция особенности от сварного стыка</t>
+  </si>
+  <si>
+    <t>Отн. дист., м</t>
+  </si>
+  <si>
+    <t>Отн. дист м.</t>
+  </si>
+  <si>
+    <t>Ориентир выше по течению</t>
+  </si>
+  <si>
+    <t>USmarker</t>
+  </si>
+  <si>
+    <t>US Ref</t>
+  </si>
+  <si>
+    <t>Расстояние до ориентира выше по течению, м</t>
+  </si>
+  <si>
+    <t>USmarkerDist</t>
+  </si>
+  <si>
+    <t>US Ref Dist</t>
+  </si>
+  <si>
+    <t>Ориентир ниже по течению</t>
+  </si>
+  <si>
+    <t>DSmarker</t>
+  </si>
+  <si>
+    <t>DS Ref</t>
+  </si>
+  <si>
+    <t>Расстояние до ориентира ниже по течению, м</t>
+  </si>
+  <si>
+    <t>DSmarkerDist</t>
+  </si>
+  <si>
+    <t>DS Ref Dist</t>
+  </si>
+  <si>
+    <t>Ширина, мм</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Ширина особенности</t>
+  </si>
+  <si>
+    <t>Т.ст., мм</t>
+  </si>
+  <si>
+    <t>Т. ст., мм</t>
+  </si>
+  <si>
+    <t>Т. ст. мм</t>
+  </si>
+  <si>
+    <t>Толщина стенки в районе особенности</t>
+  </si>
+  <si>
+    <t>Т.ст, мм</t>
+  </si>
+  <si>
+    <t>Срок ремонта</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Срок ремонта особенности, лет</t>
+  </si>
+  <si>
+    <t>Срок ремонта особенности (год)</t>
+  </si>
+  <si>
+    <t>Срок ремонта особенности,  (лет)</t>
+  </si>
+  <si>
+    <t>№ особ.</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>№ особенности</t>
+  </si>
+  <si>
+    <t>Номер особенности</t>
+  </si>
+  <si>
+    <t>№ особ</t>
+  </si>
+  <si>
+    <t>P проект (Мпа)</t>
+  </si>
+  <si>
+    <t>Pproj</t>
+  </si>
+  <si>
+    <t>Pпроект
+(Мпа)</t>
+  </si>
+  <si>
+    <t>Pбез (МПа)</t>
+  </si>
+  <si>
+    <t>PsafeSimple</t>
+  </si>
+  <si>
+    <t>P безоп. (МПа)</t>
+  </si>
+  <si>
+    <t>Высота (Балтийская)</t>
+  </si>
+  <si>
+    <t>AltBalt</t>
+  </si>
+  <si>
+    <t>Высота (Балтийская), м</t>
+  </si>
+  <si>
+    <t>Дата ремонта</t>
+  </si>
+  <si>
+    <t>RemDate</t>
+  </si>
+  <si>
+    <t>Метод проведенного ремонта</t>
+  </si>
+  <si>
+    <t>RemMethod1</t>
+  </si>
+  <si>
+    <t>Метод проведенного ремонта 2</t>
+  </si>
+  <si>
+    <t>RemMethod2</t>
+  </si>
+  <si>
+    <t>Метод ремонта комб. дефекта</t>
+  </si>
+  <si>
+    <t>RemComb</t>
+  </si>
+  <si>
+    <t>Общая дист., м</t>
+  </si>
+  <si>
+    <t>DitsOb</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>Otvet</t>
+  </si>
+  <si>
+    <t>Перепад глубины расслоений, мм</t>
+  </si>
+  <si>
+    <t>LamDiff</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Descr2</t>
+  </si>
+  <si>
+    <t>Срок рем. (1.6 МПа)</t>
+  </si>
+  <si>
+    <t>Years1</t>
+  </si>
+  <si>
+    <t>Срок рем. (4.51 МПа)</t>
+  </si>
+  <si>
+    <t>Years2</t>
+  </si>
+  <si>
+    <t>Срок рем. комб. дефекта</t>
+  </si>
+  <si>
+    <t>YearsKomb</t>
+  </si>
+  <si>
+    <t>Тип прибора</t>
+  </si>
+  <si>
+    <t>ToolType</t>
+  </si>
+  <si>
+    <t>Угол хар.т., град</t>
+  </si>
+  <si>
+    <t>AngleH</t>
+  </si>
+  <si>
+    <t>Угол хар.т., °</t>
+  </si>
+  <si>
+    <t>№ акта</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Метод ремонта 2</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>Метод ремонта / Длина, м</t>
+  </si>
+  <si>
+    <t>RepairMethod_Len</t>
+  </si>
+  <si>
+    <t>Параметры ремонта (кластер), м</t>
+  </si>
+  <si>
+    <t>RepairParamClust</t>
+  </si>
+  <si>
+    <t>Проходное сечение, %Dн</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>FEA_DEPTH_M</t>
+  </si>
+  <si>
+    <t>Abs. distance, m</t>
+  </si>
+  <si>
+    <t>Distance to U/S GW, m</t>
+  </si>
+  <si>
+    <t>Joint length, m</t>
+  </si>
+  <si>
+    <t>Feature type</t>
+  </si>
+  <si>
+    <t>Wall thickness, mm</t>
+  </si>
+  <si>
+    <t>Axial length, mm</t>
+  </si>
+  <si>
+    <t>Width, mm</t>
+  </si>
+  <si>
+    <t>Remaining wall thickness, mm</t>
+  </si>
+  <si>
+    <t>Psafe ASME B31G, Bar</t>
+  </si>
+  <si>
+    <t>Response period</t>
+  </si>
+  <si>
+    <t>Repair method</t>
+  </si>
+  <si>
+    <t>Repair parameters, m</t>
+  </si>
+  <si>
+    <t>Erf</t>
+  </si>
+  <si>
+    <t>Wt</t>
+  </si>
+  <si>
+    <t>#REMAIN_WT</t>
+  </si>
+  <si>
     <t>#ORIENT</t>
   </si>
   <si>
-    <t>#PSAFE</t>
-  </si>
-  <si>
-    <t>#RWT</t>
-  </si>
-  <si>
-    <t>#US</t>
-  </si>
-  <si>
-    <t>#WIDTH</t>
-  </si>
-  <si>
-    <t>#WT</t>
-  </si>
-  <si>
-    <t>#DIMM</t>
-  </si>
-  <si>
-    <t>#FEATURE</t>
-  </si>
-  <si>
-    <t>#FEATURE_TYPE</t>
-  </si>
-  <si>
-    <t>#JL</t>
-  </si>
-  <si>
-    <t>NEW_2</t>
-  </si>
-  <si>
-    <t>NEW_3</t>
-  </si>
-  <si>
-    <t>NEW_4</t>
-  </si>
-  <si>
-    <t>NEW_5</t>
-  </si>
-  <si>
-    <t>DESCR_EN</t>
-  </si>
-  <si>
-    <t>DESCR_RU</t>
-  </si>
-  <si>
-    <t>#DEPTH_PREV</t>
-  </si>
-  <si>
-    <t>#DEPTH_TMP</t>
-  </si>
-  <si>
-    <t>#DEPTH_TMP2</t>
-  </si>
-  <si>
-    <t>#FEA_CODE</t>
-  </si>
-  <si>
-    <t>#FEA_CODE_REPLACE</t>
-  </si>
-  <si>
-    <t>#HAR_CODE1</t>
-  </si>
-  <si>
-    <t>#HAR_CODE2</t>
-  </si>
-  <si>
-    <t>#REMARKS</t>
-  </si>
-  <si>
-    <t>#REP_GROUP</t>
-  </si>
-  <si>
-    <t>#AMPL</t>
-  </si>
-  <si>
-    <t>Amlitude</t>
-  </si>
-  <si>
-    <t>TARGET_COL_NAME</t>
-  </si>
-  <si>
-    <t>DBF_COL</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>#KML_CLASS</t>
-  </si>
-  <si>
-    <t>NEW_6</t>
-  </si>
-  <si>
-    <t>#JN</t>
-  </si>
-  <si>
-    <t>#CORR</t>
-  </si>
-  <si>
-    <t>CORR</t>
-  </si>
-  <si>
-    <t>NEW_1</t>
-  </si>
-  <si>
-    <t>NEW_7</t>
-  </si>
-  <si>
-    <t>NEW_8</t>
-  </si>
-  <si>
-    <t>#HAR_CODE1_REPLACE</t>
-  </si>
-  <si>
-    <t>#HAR_CODE2_REPLACE</t>
-  </si>
-  <si>
-    <t>#DBF_DESCR</t>
-  </si>
-  <si>
-    <t>NEW_9</t>
-  </si>
-  <si>
-    <t>#DESCR</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>COL_VAR_NAME</t>
+  </si>
+  <si>
+    <t>COL_ID</t>
+  </si>
+  <si>
+    <t>COL_NAME_RU</t>
+  </si>
+  <si>
+    <t>COL_NAME_EN</t>
+  </si>
+  <si>
+    <t>COL_FORMAT</t>
+  </si>
+  <si>
+    <t>COL_WIDTH_RU</t>
+  </si>
+  <si>
+    <t>COL_WIDTH_EN</t>
+  </si>
+  <si>
+    <t>Psafe ASME B31G, Mpa</t>
+  </si>
+  <si>
+    <t>#ORIENT_HOUR</t>
+  </si>
+  <si>
+    <t>NEW_10</t>
+  </si>
+  <si>
+    <t>COL_ID_EXCEL</t>
+  </si>
+  <si>
+    <t>#BLANK</t>
+  </si>
+  <si>
+    <t>Orientation, o'clock</t>
+  </si>
+  <si>
+    <t>Orientation, deg</t>
+  </si>
+  <si>
+    <t>Абс. дистанция, м</t>
+  </si>
+  <si>
+    <t>Отн. дист, м</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -402,8 +1043,32 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +1081,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -440,12 +1117,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,10 +1207,78 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0D6A00A1-F329-4068-B548-E681A132468E}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ABAB7DBC-AD3C-4B95-A4CE-FBBE04A7F9BB}"/>
+    <cellStyle name="Normal 8" xfId="3" xr:uid="{C98543C4-5D7E-44BB-9146-1A527A845DA3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,10 +1593,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,16 +1609,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -915,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -975,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -987,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -999,7 +1806,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>47</v>
@@ -1011,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
@@ -1023,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>0</v>
@@ -1035,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>45</v>
@@ -1047,10 +1854,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1059,7 +1866,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>33</v>
@@ -1071,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
@@ -1081,7 +1888,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
@@ -1091,7 +1898,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
@@ -1101,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
@@ -1111,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
@@ -1121,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
@@ -1131,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
@@ -1141,7 +1948,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
@@ -1151,27 +1958,27 @@
         <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>32</v>
@@ -1180,22 +1987,22 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>31</v>
@@ -1204,10 +2011,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>30</v>
@@ -1216,53 +2023,63 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D37" xr:uid="{C4BE711E-0A71-4D47-A2C0-8A19AD06DDE4}"/>
@@ -1270,4 +2087,3553 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58851CFD-2A9A-4626-ABCC-715B7340DFD6}">
+  <dimension ref="A1:C204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C202" xr:uid="{58851CFD-2A9A-4626-ABCC-715B7340DFD6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C204">
+      <sortCondition ref="B1:B202"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39E8B76-B3BF-4511-99DE-EE36D3150FB3}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="24">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24">
+        <v>8</v>
+      </c>
+      <c r="G2" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>9</v>
+      </c>
+      <c r="G4" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>11</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>6</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>13</v>
+      </c>
+      <c r="G7" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="24">
+        <v>6</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="24">
+        <v>3</v>
+      </c>
+      <c r="F10" s="24">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>13</v>
+      </c>
+      <c r="G11" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="24">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>7</v>
+      </c>
+      <c r="G13" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="24">
+        <v>7</v>
+      </c>
+      <c r="F14" s="24">
+        <v>8</v>
+      </c>
+      <c r="G14" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>7</v>
+      </c>
+      <c r="G15" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>4</v>
+      </c>
+      <c r="G16" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24">
+        <v>8</v>
+      </c>
+      <c r="G17" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>20</v>
+      </c>
+      <c r="G18" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9</v>
+      </c>
+      <c r="G19" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>9</v>
+      </c>
+      <c r="G20" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>16</v>
+      </c>
+      <c r="G21" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>14</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24">
+        <v>8</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>9</v>
+      </c>
+      <c r="G24" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19">
+        <v>11</v>
+      </c>
+      <c r="G25" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>9</v>
+      </c>
+      <c r="G26" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3</v>
+      </c>
+      <c r="F27" s="24">
+        <v>8</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24">
+        <v>6</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>8</v>
+      </c>
+      <c r="G29" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>17</v>
+      </c>
+      <c r="G30" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24">
+        <v>6</v>
+      </c>
+      <c r="G31" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19">
+        <v>23</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <v>15</v>
+      </c>
+      <c r="G33" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>24</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>14</v>
+      </c>
+      <c r="G35" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19">
+        <v>4</v>
+      </c>
+      <c r="G36" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19">
+        <v>2</v>
+      </c>
+      <c r="F39" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="G39" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <v>12</v>
+      </c>
+      <c r="G41" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
+        <v>12</v>
+      </c>
+      <c r="G42" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="G43" s="19">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19">
+        <v>3</v>
+      </c>
+      <c r="F44" s="19">
+        <v>7</v>
+      </c>
+      <c r="G44" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19">
+        <v>13</v>
+      </c>
+      <c r="G45" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19">
+        <v>2</v>
+      </c>
+      <c r="F46" s="19">
+        <v>10</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19">
+        <v>10.5</v>
+      </c>
+      <c r="G47" s="19">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="G48" s="19">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19">
+        <v>9</v>
+      </c>
+      <c r="G49" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>9</v>
+      </c>
+      <c r="G50" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="G51" s="19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="24">
+        <v>7</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19">
+        <v>0</v>
+      </c>
+      <c r="F53" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="G53" s="19">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0</v>
+      </c>
+      <c r="F54" s="24">
+        <v>19</v>
+      </c>
+      <c r="G54" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19">
+        <v>0</v>
+      </c>
+      <c r="F55" s="19">
+        <v>25</v>
+      </c>
+      <c r="G55" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19">
+        <v>29</v>
+      </c>
+      <c r="G56" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22">
+        <v>2</v>
+      </c>
+      <c r="F57" s="22">
+        <v>12</v>
+      </c>
+      <c r="G57" s="22">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G57" xr:uid="{A39E8B76-B3BF-4511-99DE-EE36D3150FB3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>